--- a/Results/Research question 4/Research question 4.xlsx
+++ b/Results/Research question 4/Research question 4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SELAB\Desktop\SiHyeon\MicroDVI\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SELAB\Desktop\SiHyeon\MicroDVI\Results\Research question 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="364">
   <si>
     <t>Components</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1127,6 +1127,22 @@
   <si>
     <t>The approach
 alpha=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1478,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3022,7 +3038,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3030,7 +3046,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3038,7 +3054,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3046,7 +3062,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3054,12 +3070,33 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B86" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="array" ref="C86">(SUM(IF((C$2:C$74&lt;&gt;"") * ($B$2:$B$74 = C$2:C$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="array" ref="D86">(SUM(IF((D$2:D$74&lt;&gt;"") * ($B$2:$B$74 = D$2:D$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="array" ref="E86">(SUM(IF((E$2:E$74&lt;&gt;"") * ($B$2:$B$74 = E$2:E$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="array" ref="F86">(SUM(IF((F$2:F$74&lt;&gt;"") * ($B$2:$B$74 = F$2:F$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.91666666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -3070,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4214,6 +4251,27 @@
         <v>86</v>
       </c>
     </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B61" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="array" ref="C61">(SUM(IF((C$2:C$54&lt;&gt;"") * ($B$2:$B$54 = C$2:C$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.67796610169491522</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="array" ref="D61">(SUM(IF((D$2:D$54&lt;&gt;"") * ($B$2:$B$54 = D$2:D$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.89830508474576276</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="array" ref="E61">(SUM(IF((E$2:E$54&lt;&gt;"") * ($B$2:$B$54 = E$2:E$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.71186440677966101</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="array" ref="F61">(SUM(IF((F$2:F$54&lt;&gt;"") * ($B$2:$B$54 = F$2:F$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.98305084745762716</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4222,10 +4280,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4994,6 +5052,27 @@
         <v>87</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="array" ref="C46">(SUM(IF((C$2:C$33&lt;&gt;"") * ($B$2:$B$33 = C$2:C$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+        <v>0.65909090909090906</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="array" ref="D46">(SUM(IF((D$2:D$33&lt;&gt;"") * ($B$2:$B$33 = D$2:D$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+        <v>0.97727272727272729</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="array" ref="E46">(SUM(IF((E$2:E$33&lt;&gt;"") * ($B$2:$B$33 = E$2:E$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="array" ref="F46">(SUM(IF((F$2:F$33&lt;&gt;"") * ($B$2:$B$33 = F$2:F$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+        <v>0.97727272727272729</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5002,10 +5081,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5794,6 +5873,27 @@
         <v>86</v>
       </c>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="array" ref="C41">(SUM(IF((C$2:C$38&lt;&gt;"") * ($B$2:$B$38 = C$2:C$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="array" ref="D41">(SUM(IF((D$2:D$38&lt;&gt;"") * ($B$2:$B$38 = D$2:D$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="array" ref="E41">(SUM(IF((E$2:E$38&lt;&gt;"") * ($B$2:$B$38 = E$2:E$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="array" ref="F41">(SUM(IF((F$2:F$38&lt;&gt;"") * ($B$2:$B$38 = F$2:F$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5802,10 +5902,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8670,7 +8770,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>332</v>
       </c>
@@ -8678,7 +8778,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>333</v>
       </c>
@@ -8686,7 +8786,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>334</v>
       </c>
@@ -8694,7 +8794,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>335</v>
       </c>
@@ -8702,7 +8802,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>336</v>
       </c>
@@ -8710,7 +8810,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>337</v>
       </c>
@@ -8718,7 +8818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>338</v>
       </c>
@@ -8726,7 +8826,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>339</v>
       </c>
@@ -8734,7 +8834,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>340</v>
       </c>
@@ -8742,7 +8842,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>341</v>
       </c>
@@ -8750,7 +8850,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>342</v>
       </c>
@@ -8758,7 +8858,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>343</v>
       </c>
@@ -8766,12 +8866,33 @@
         <v>87</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>344</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B174" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="array" ref="C174">(SUM(IF((C$2:C$131&lt;&gt;"") * ($B$2:$B$131 = C$2:C$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.58720930232558144</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="array" ref="D174">(SUM(IF((D$2:D$131&lt;&gt;"") * ($B$2:$B$131 = D$2:D$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.58720930232558144</v>
+      </c>
+      <c r="E174" s="1">
+        <f t="array" ref="E174">(SUM(IF((E$2:E$131&lt;&gt;"") * ($B$2:$B$131 = E$2:E$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.57558139534883723</v>
+      </c>
+      <c r="F174" s="1">
+        <f t="array" ref="F174">(SUM(IF((F$2:F$131&lt;&gt;"") * ($B$2:$B$131 = F$2:F$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.76162790697674421</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Research question 4/Research question 4.xlsx
+++ b/Results/Research question 4/Research question 4.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="365">
   <si>
     <t>Components</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1143,6 +1143,10 @@
   </si>
   <si>
     <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mono2Micro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5904,8 +5908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5914,7 +5918,7 @@
     <col min="2" max="2" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5932,7 +5936,7 @@
         <v>355</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>359</v>
